--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value724.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value724.xlsx
@@ -354,7 +354,7 @@
         <v>1.924364827463719</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.781848316906945</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value724.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value724.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.19776026142038</v>
+        <v>1.154684662818909</v>
       </c>
       <c r="B1">
-        <v>1.924364827463719</v>
+        <v>1.870872735977173</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.781848316906945</v>
+        <v>2.219284296035767</v>
       </c>
       <c r="E1">
-        <v>1.019202198100138</v>
+        <v>1.085615634918213</v>
       </c>
     </row>
   </sheetData>
